--- a/src/test/resources/br/com/drools/pricing/g3/flight_g3_milesConverter.xlsx
+++ b/src/test/resources/br/com/drools/pricing/g3/flight_g3_milesConverter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\drools-pricing-service\src\test\resources\br\com\drools\pricing\g3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\Drools\drools-pricing-service\src\test\resources\br\com\drools\pricing\g3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>NAME</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Economica4</t>
+  </si>
+  <si>
+    <t>AGENDA-GROUP</t>
+  </si>
+  <si>
+    <t>Agenda01</t>
+  </si>
+  <si>
+    <t>AGRUPADOR</t>
+  </si>
+  <si>
+    <t>Agenda02</t>
+  </si>
+  <si>
+    <t>Agenda03</t>
+  </si>
+  <si>
+    <t>Agenda04</t>
   </si>
 </sst>
 </file>
@@ -514,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -525,15 +543,16 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -541,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -549,38 +568,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -588,96 +613,167 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7">
         <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -693,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -704,17 +800,18 @@
     <col min="1" max="2" width="11.5703125" style="1"/>
     <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -723,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -732,46 +829,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -779,18 +882,52 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
         <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -800,9 +937,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -814,14 +951,14 @@
     <col min="5" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -830,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -839,46 +976,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -886,18 +1029,38 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7">
         <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
